--- a/S1_species.xlsx
+++ b/S1_species.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/sebastiantriesch/Desktop/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Volumes/agweber/data/sebastiantriesch/writing/paper/brassicaceae_TE_analysis_github/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C1852727-B100-9048-A448-693270A43D86}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AA7D7C57-1CAD-3A46-8B68-ADC033590AAE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1260" yWindow="500" windowWidth="38400" windowHeight="21080" xr2:uid="{13AA87DE-2331-0846-B86A-2CDA7C4A8E89}"/>
+    <workbookView xWindow="-38400" yWindow="500" windowWidth="38400" windowHeight="21100" xr2:uid="{13AA87DE-2331-0846-B86A-2CDA7C4A8E89}"/>
   </bookViews>
   <sheets>
     <sheet name="Tabelle1" sheetId="1" r:id="rId1"/>
@@ -86,15 +86,9 @@
     <t xml:space="preserve">SAMN31871761 </t>
   </si>
   <si>
-    <t>Hirschfeldia incana HIR1</t>
-  </si>
-  <si>
     <t xml:space="preserve">SAMN31871762 </t>
   </si>
   <si>
-    <t>Hirschfeldia incana HIR3</t>
-  </si>
-  <si>
     <t xml:space="preserve">SAMN31871763 </t>
   </si>
   <si>
@@ -147,13 +141,43 @@
   </si>
   <si>
     <t>C3-C4</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Hirschfeldia incana </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>HIR1</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Hirschfeldia incana </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>HIR3</t>
+    </r>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="4" x14ac:knownFonts="1">
+  <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -182,6 +206,14 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <i/>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -203,7 +235,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
@@ -214,6 +246,7 @@
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Standard" xfId="0" builtinId="0"/>
@@ -528,7 +561,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DC387286-7079-2A41-AE79-F1ADA3D35BF8}">
-  <dimension ref="A1:C17"/>
+  <dimension ref="A1:C18"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="150" workbookViewId="0">
       <selection activeCell="C19" sqref="C19"/>
@@ -546,187 +579,190 @@
         <v>0</v>
       </c>
       <c r="B1" s="5" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="C1" s="5" t="s">
         <v>5</v>
       </c>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A2" s="1" t="s">
-        <v>26</v>
+      <c r="A2" s="6" t="s">
+        <v>24</v>
       </c>
       <c r="B2" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="C2" s="1" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A3" s="6" t="s">
+        <v>25</v>
+      </c>
+      <c r="B3" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="C3" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A4" s="6" t="s">
+        <v>2</v>
+      </c>
+      <c r="B4" s="1" t="s">
         <v>35</v>
-      </c>
-      <c r="C2" s="1" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A3" s="1" t="s">
-        <v>27</v>
-      </c>
-      <c r="B3" s="1" t="s">
-        <v>35</v>
-      </c>
-      <c r="C3" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A4" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="B4" s="1" t="s">
-        <v>37</v>
       </c>
       <c r="C4" s="1" t="s">
         <v>1</v>
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A5" s="1" t="s">
-        <v>29</v>
+      <c r="A5" s="6" t="s">
+        <v>27</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="C5" s="2" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A6" s="1" t="s">
+      <c r="A6" s="6" t="s">
         <v>11</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="C6" s="1" t="s">
         <v>6</v>
       </c>
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A7" s="1" t="s">
+      <c r="A7" s="6" t="s">
         <v>10</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="C7" s="1" t="s">
         <v>7</v>
       </c>
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A8" s="1" t="s">
+      <c r="A8" s="6" t="s">
         <v>9</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="C8" s="1" t="s">
         <v>8</v>
       </c>
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A9" s="1" t="s">
+      <c r="A9" s="6" t="s">
         <v>13</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="C9" s="1" t="s">
         <v>12</v>
       </c>
     </row>
     <row r="10" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A10" s="1" t="s">
+      <c r="A10" s="6" t="s">
         <v>15</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="C10" s="1" t="s">
         <v>14</v>
       </c>
     </row>
     <row r="11" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A11" s="1" t="s">
+      <c r="A11" s="6" t="s">
         <v>3</v>
       </c>
       <c r="B11" s="1" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="C11" t="s">
         <v>4</v>
       </c>
     </row>
     <row r="12" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A12" s="1" t="s">
-        <v>17</v>
+      <c r="A12" s="6" t="s">
+        <v>36</v>
       </c>
       <c r="B12" s="1" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="C12" s="1" t="s">
         <v>16</v>
       </c>
     </row>
     <row r="13" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A13" s="1" t="s">
+      <c r="A13" s="6" t="s">
+        <v>37</v>
+      </c>
+      <c r="B13" s="4" t="s">
+        <v>35</v>
+      </c>
+      <c r="C13" s="1" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="14" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A14" s="6" t="s">
+        <v>28</v>
+      </c>
+      <c r="B14" s="4" t="s">
+        <v>35</v>
+      </c>
+      <c r="C14" s="3" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="15" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A15" s="6" t="s">
+        <v>29</v>
+      </c>
+      <c r="B15" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="C15" s="3" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="16" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A16" s="6" t="s">
         <v>19</v>
       </c>
-      <c r="B13" s="4" t="s">
-        <v>37</v>
-      </c>
-      <c r="C13" s="1" t="s">
+      <c r="B16" s="4" t="s">
+        <v>35</v>
+      </c>
+      <c r="C16" s="1" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="14" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A14" s="1" t="s">
-        <v>30</v>
-      </c>
-      <c r="B14" s="4" t="s">
-        <v>37</v>
-      </c>
-      <c r="C14" s="3" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="15" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A15" s="1" t="s">
-        <v>31</v>
-      </c>
-      <c r="B15" s="1" t="s">
+    <row r="17" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A17" s="6" t="s">
+        <v>21</v>
+      </c>
+      <c r="B17" s="4" t="s">
         <v>35</v>
       </c>
-      <c r="C15" s="3" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="16" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A16" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="B16" s="4" t="s">
-        <v>37</v>
-      </c>
-      <c r="C16" s="1" t="s">
+      <c r="C17" s="1" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="17" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A17" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="B17" s="4" t="s">
-        <v>37</v>
-      </c>
-      <c r="C17" s="1" t="s">
-        <v>22</v>
-      </c>
+    <row r="18" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A18" s="6"/>
     </row>
   </sheetData>
   <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A1:C17">
